--- a/data/pca/factorExposure/factorExposure_2012-09-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001404327511979794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001867463874791791</v>
+      </c>
+      <c r="C2">
+        <v>0.02813585158676331</v>
+      </c>
+      <c r="D2">
+        <v>0.005658492547480691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-6.90776116982082e-06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007076836708123023</v>
+      </c>
+      <c r="C4">
+        <v>0.08260112477790679</v>
+      </c>
+      <c r="D4">
+        <v>0.07158724819283489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.001681212981693421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01440502321473336</v>
+      </c>
+      <c r="C6">
+        <v>0.1139339276167566</v>
+      </c>
+      <c r="D6">
+        <v>0.0252450835433334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006546832534157919</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005057923247950763</v>
+      </c>
+      <c r="C7">
+        <v>0.05786444180285361</v>
+      </c>
+      <c r="D7">
+        <v>0.034403968842502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0005859296896305805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005967178607620876</v>
+      </c>
+      <c r="C8">
+        <v>0.03540357931591503</v>
+      </c>
+      <c r="D8">
+        <v>0.04022597644457276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.001325284683817853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005176849451714034</v>
+      </c>
+      <c r="C9">
+        <v>0.07017312855793012</v>
+      </c>
+      <c r="D9">
+        <v>0.07687619798041868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002850879018154441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005489416629279085</v>
+      </c>
+      <c r="C10">
+        <v>0.05552173996414513</v>
+      </c>
+      <c r="D10">
+        <v>-0.1936057291312796</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002039917939516845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005695162072087072</v>
+      </c>
+      <c r="C11">
+        <v>0.07881040134734442</v>
+      </c>
+      <c r="D11">
+        <v>0.06628605163849596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001138746831871445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004193353461109294</v>
+      </c>
+      <c r="C12">
+        <v>0.06432373033361449</v>
+      </c>
+      <c r="D12">
+        <v>0.05249478674986929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003244384660817205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008206573108451111</v>
+      </c>
+      <c r="C13">
+        <v>0.0670079980782505</v>
+      </c>
+      <c r="D13">
+        <v>0.06277145560556209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001828353935009553</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0007066668682397063</v>
+      </c>
+      <c r="C14">
+        <v>0.04222113457907743</v>
+      </c>
+      <c r="D14">
+        <v>0.0126898772156036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0001749426389357134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005988288528506062</v>
+      </c>
+      <c r="C15">
+        <v>0.03997414082279468</v>
+      </c>
+      <c r="D15">
+        <v>0.03025783801420664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0002524671466619643</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005061632155496285</v>
+      </c>
+      <c r="C16">
+        <v>0.06368774216038303</v>
+      </c>
+      <c r="D16">
+        <v>0.05882597271650975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.00171052059155065</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008836286975164732</v>
+      </c>
+      <c r="C20">
+        <v>0.06294178137365708</v>
+      </c>
+      <c r="D20">
+        <v>0.05217876179655868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.006257651800835735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009228495112813158</v>
+      </c>
+      <c r="C21">
+        <v>0.01960127866376273</v>
+      </c>
+      <c r="D21">
+        <v>0.04287231288307572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.0203379225287385</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007121930634602918</v>
+      </c>
+      <c r="C22">
+        <v>0.08617893213757903</v>
+      </c>
+      <c r="D22">
+        <v>0.1257437859461225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02000586664575606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006834757247040519</v>
+      </c>
+      <c r="C23">
+        <v>0.08654646768277754</v>
+      </c>
+      <c r="D23">
+        <v>0.1268860988704662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001917086403043087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005554920889332305</v>
+      </c>
+      <c r="C24">
+        <v>0.07555967057084888</v>
+      </c>
+      <c r="D24">
+        <v>0.06913255464848374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003748760864208348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00316003777369516</v>
+      </c>
+      <c r="C25">
+        <v>0.07741740630492755</v>
+      </c>
+      <c r="D25">
+        <v>0.0678941484312138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.002992067849661604</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003585453906590113</v>
+      </c>
+      <c r="C26">
+        <v>0.03856549272695436</v>
+      </c>
+      <c r="D26">
+        <v>0.02523120157856215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006135298456936182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001333110957920656</v>
+      </c>
+      <c r="C28">
+        <v>0.1048791649916466</v>
+      </c>
+      <c r="D28">
+        <v>-0.3227915401935115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.0005132102788778778</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002671704593693557</v>
+      </c>
+      <c r="C29">
+        <v>0.04855515520304771</v>
+      </c>
+      <c r="D29">
+        <v>0.01118987602476086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004474923296367315</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009776005807305982</v>
+      </c>
+      <c r="C30">
+        <v>0.1407397232359096</v>
+      </c>
+      <c r="D30">
+        <v>0.1105047045716067</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002147933651541564</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006282317489225248</v>
+      </c>
+      <c r="C31">
+        <v>0.04292439609779641</v>
+      </c>
+      <c r="D31">
+        <v>0.03380330011542668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001908992977361649</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003598959511802066</v>
+      </c>
+      <c r="C32">
+        <v>0.03988913356870116</v>
+      </c>
+      <c r="D32">
+        <v>0.02423480595780446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.0007843693707303937</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00911239072551351</v>
+      </c>
+      <c r="C33">
+        <v>0.08810301827145245</v>
+      </c>
+      <c r="D33">
+        <v>0.06668207648822375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.002599896013898979</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004225232640507292</v>
+      </c>
+      <c r="C34">
+        <v>0.05741198643801187</v>
+      </c>
+      <c r="D34">
+        <v>0.05895456149020673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00122764357599393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005373849570117255</v>
+      </c>
+      <c r="C35">
+        <v>0.03998841497366611</v>
+      </c>
+      <c r="D35">
+        <v>0.02178255873805457</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.005121565294707026</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001534328089576316</v>
+      </c>
+      <c r="C36">
+        <v>0.02384485925162836</v>
+      </c>
+      <c r="D36">
+        <v>0.02761811720274647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.0009983432311387805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009267510156147409</v>
+      </c>
+      <c r="C38">
+        <v>0.03824075010572563</v>
+      </c>
+      <c r="D38">
+        <v>0.01489611310285458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01185807635191238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001322118318853662</v>
+      </c>
+      <c r="C39">
+        <v>0.1129863723096414</v>
+      </c>
+      <c r="D39">
+        <v>0.07817063120944394</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.006334490333502884</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.003788626270964044</v>
+      </c>
+      <c r="C40">
+        <v>0.09119654156780434</v>
+      </c>
+      <c r="D40">
+        <v>0.01678730191734585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0008750269101477952</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007296591828153021</v>
+      </c>
+      <c r="C41">
+        <v>0.03871093028648116</v>
+      </c>
+      <c r="D41">
+        <v>0.04034152867489343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002478725956257241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003891677949438328</v>
+      </c>
+      <c r="C43">
+        <v>0.05235121156791745</v>
+      </c>
+      <c r="D43">
+        <v>0.02886688794158991</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01153802138542453</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002642911555627461</v>
+      </c>
+      <c r="C44">
+        <v>0.1040777573803177</v>
+      </c>
+      <c r="D44">
+        <v>0.06791797818592613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0008226028892659125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001562777316709589</v>
+      </c>
+      <c r="C46">
+        <v>0.03247757512417662</v>
+      </c>
+      <c r="D46">
+        <v>0.03572636752873062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007792877216700793</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002106309993459306</v>
+      </c>
+      <c r="C47">
+        <v>0.03488556862876203</v>
+      </c>
+      <c r="D47">
+        <v>0.02295412716459483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003455549925381502</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006590730435340758</v>
+      </c>
+      <c r="C48">
+        <v>0.02974333331328605</v>
+      </c>
+      <c r="D48">
+        <v>0.03780439496552719</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.002029594918383355</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01768573580633564</v>
+      </c>
+      <c r="C49">
+        <v>0.1902374103444014</v>
+      </c>
+      <c r="D49">
+        <v>0.006428978505864153</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0002503647560243133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003609628477910775</v>
+      </c>
+      <c r="C50">
+        <v>0.04172476562532593</v>
+      </c>
+      <c r="D50">
+        <v>0.04085224292788408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>4.276904234462668e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.005015014201242217</v>
+      </c>
+      <c r="C51">
+        <v>0.02642882472187612</v>
+      </c>
+      <c r="D51">
+        <v>0.02186184220425432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.004168279510725194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02139555437053161</v>
+      </c>
+      <c r="C53">
+        <v>0.1710706233078462</v>
+      </c>
+      <c r="D53">
+        <v>0.02222966152565621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003112428373746677</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009234164771899032</v>
+      </c>
+      <c r="C54">
+        <v>0.05426268242447024</v>
+      </c>
+      <c r="D54">
+        <v>0.04457458750714359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00147801204706396</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009631190204961259</v>
+      </c>
+      <c r="C55">
+        <v>0.1076592488269046</v>
+      </c>
+      <c r="D55">
+        <v>0.03957931152849108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.005970842550110239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02057554908019696</v>
+      </c>
+      <c r="C56">
+        <v>0.1751750006941277</v>
+      </c>
+      <c r="D56">
+        <v>0.01489225940327431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.002125419461675703</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01905862395602718</v>
+      </c>
+      <c r="C58">
+        <v>0.1037290285873564</v>
+      </c>
+      <c r="D58">
+        <v>0.07321144079424313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.005153282348257857</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01035610949139828</v>
+      </c>
+      <c r="C59">
+        <v>0.1697611443065322</v>
+      </c>
+      <c r="D59">
+        <v>-0.341365094760101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.0002385491513047578</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02518889246288792</v>
+      </c>
+      <c r="C60">
+        <v>0.2261863079701038</v>
+      </c>
+      <c r="D60">
+        <v>0.01758792174459955</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01080532481675573</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001797113274060386</v>
+      </c>
+      <c r="C61">
+        <v>0.09417208609914265</v>
+      </c>
+      <c r="D61">
+        <v>0.05845834556951911</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1532861686417084</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1495952554959547</v>
+      </c>
+      <c r="C62">
+        <v>0.09717677573059066</v>
+      </c>
+      <c r="D62">
+        <v>0.02358257047711802</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001135272939759715</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006485130383758926</v>
+      </c>
+      <c r="C63">
+        <v>0.05249247653950894</v>
+      </c>
+      <c r="D63">
+        <v>0.03532666900588616</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.004241755952646678</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0157079938036142</v>
+      </c>
+      <c r="C64">
+        <v>0.104654935309881</v>
+      </c>
+      <c r="D64">
+        <v>0.05698531090807937</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.004204692066810646</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01767127580407338</v>
+      </c>
+      <c r="C65">
+        <v>0.120631543776528</v>
+      </c>
+      <c r="D65">
+        <v>0.02954821322225016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.002956161652973059</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01338029901064749</v>
+      </c>
+      <c r="C66">
+        <v>0.1612028325788635</v>
+      </c>
+      <c r="D66">
+        <v>0.1097369207720703</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003553921003029529</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01561698353773203</v>
+      </c>
+      <c r="C67">
+        <v>0.07056578387189336</v>
+      </c>
+      <c r="D67">
+        <v>0.02553060956844456</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004462984832415573</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001183371028265649</v>
+      </c>
+      <c r="C68">
+        <v>0.08721743100119608</v>
+      </c>
+      <c r="D68">
+        <v>-0.2562466400812916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001012865666865056</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006523332077532337</v>
+      </c>
+      <c r="C69">
+        <v>0.05249148667443624</v>
+      </c>
+      <c r="D69">
+        <v>0.038073279682489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001328148157444955</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002163893086223721</v>
+      </c>
+      <c r="C70">
+        <v>0.006506450843442937</v>
+      </c>
+      <c r="D70">
+        <v>0.001759770016635293</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0004107225978622014</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005842673338698834</v>
+      </c>
+      <c r="C71">
+        <v>0.09171224452800414</v>
+      </c>
+      <c r="D71">
+        <v>-0.3002732220242892</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.002385071334167261</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01663647838686829</v>
+      </c>
+      <c r="C72">
+        <v>0.1569798148368993</v>
+      </c>
+      <c r="D72">
+        <v>0.01162242827958039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.001607611420128223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03165344765211232</v>
+      </c>
+      <c r="C73">
+        <v>0.2828682254016763</v>
+      </c>
+      <c r="D73">
+        <v>0.05370283884813683</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005965430710709954</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002090751013990186</v>
+      </c>
+      <c r="C74">
+        <v>0.1015987903852375</v>
+      </c>
+      <c r="D74">
+        <v>0.03644673887247533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.003157411815310113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01083791009805647</v>
+      </c>
+      <c r="C75">
+        <v>0.1217452266802176</v>
+      </c>
+      <c r="D75">
+        <v>0.02504346990549667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01073997754589693</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02245018857394022</v>
+      </c>
+      <c r="C76">
+        <v>0.1467078635995895</v>
+      </c>
+      <c r="D76">
+        <v>0.05796428488485547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0008243862273454182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0214135619757439</v>
+      </c>
+      <c r="C77">
+        <v>0.1121348268394285</v>
+      </c>
+      <c r="D77">
+        <v>0.05303507699227186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.002508344871012948</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01473121647637219</v>
+      </c>
+      <c r="C78">
+        <v>0.0962919791617967</v>
+      </c>
+      <c r="D78">
+        <v>0.0822025663324356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02457236934050957</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03852156400258386</v>
+      </c>
+      <c r="C79">
+        <v>0.1559909610319493</v>
+      </c>
+      <c r="D79">
+        <v>0.03372485211592697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006071721657835771</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01001713005712879</v>
+      </c>
+      <c r="C80">
+        <v>0.03826549309811227</v>
+      </c>
+      <c r="D80">
+        <v>0.02988153379803756</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.002956467502660958</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01588908734974333</v>
+      </c>
+      <c r="C81">
+        <v>0.1293596605802163</v>
+      </c>
+      <c r="D81">
+        <v>0.03795868299669207</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005446048097001648</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01988379881917457</v>
+      </c>
+      <c r="C82">
+        <v>0.1387748548014924</v>
+      </c>
+      <c r="D82">
+        <v>0.03839534884777202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.001686035180826022</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01159030502565456</v>
+      </c>
+      <c r="C83">
+        <v>0.06264275935108118</v>
+      </c>
+      <c r="D83">
+        <v>0.0444897781393355</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0107299664105983</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01235149609384134</v>
+      </c>
+      <c r="C84">
+        <v>0.03756599045306963</v>
+      </c>
+      <c r="D84">
+        <v>-0.001655361140451176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01645799901791145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02928736780216663</v>
+      </c>
+      <c r="C85">
+        <v>0.1235091896512869</v>
+      </c>
+      <c r="D85">
+        <v>0.03789575855828931</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002712380770711954</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004568243239938748</v>
+      </c>
+      <c r="C86">
+        <v>0.05043346895630117</v>
+      </c>
+      <c r="D86">
+        <v>0.02812614801933386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.0003233815159373057</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01092997376146726</v>
+      </c>
+      <c r="C87">
+        <v>0.1274779705812812</v>
+      </c>
+      <c r="D87">
+        <v>0.07794509705269258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009636913396578975</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002908310437672289</v>
+      </c>
+      <c r="C88">
+        <v>0.06318029835904898</v>
+      </c>
+      <c r="D88">
+        <v>0.02692837371165795</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01001062417957451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00151346325847899</v>
+      </c>
+      <c r="C89">
+        <v>0.1396282953249438</v>
+      </c>
+      <c r="D89">
+        <v>-0.3166938115644241</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002321728933522125</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006866101657518902</v>
+      </c>
+      <c r="C90">
+        <v>0.1207176782695658</v>
+      </c>
+      <c r="D90">
+        <v>-0.3120958623165664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0002739411938881449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01046895461512519</v>
+      </c>
+      <c r="C91">
+        <v>0.09943352154449774</v>
+      </c>
+      <c r="D91">
+        <v>0.02469412788004128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007991592465514253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0006825237995851827</v>
+      </c>
+      <c r="C92">
+        <v>0.134775774599305</v>
+      </c>
+      <c r="D92">
+        <v>-0.3230069999521498</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001811803986167086</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004278296953301227</v>
+      </c>
+      <c r="C93">
+        <v>0.1054585196806934</v>
+      </c>
+      <c r="D93">
+        <v>-0.2969729950735622</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004066758349682145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02162794484287207</v>
+      </c>
+      <c r="C94">
+        <v>0.1423777122862862</v>
+      </c>
+      <c r="D94">
+        <v>0.0544124786384329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.0001058562087639518</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01662820311183375</v>
+      </c>
+      <c r="C95">
+        <v>0.1215303913673805</v>
+      </c>
+      <c r="D95">
+        <v>0.065092734134307</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.008238204034344693</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03685693973319402</v>
+      </c>
+      <c r="C97">
+        <v>0.2257067000653438</v>
+      </c>
+      <c r="D97">
+        <v>0.002492994120761977</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.005336336373915126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03807534286278175</v>
+      </c>
+      <c r="C98">
+        <v>0.2585577504011679</v>
+      </c>
+      <c r="D98">
+        <v>0.03132407155268217</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9865196741122446</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9812050457968207</v>
+      </c>
+      <c r="C99">
+        <v>-0.1203192306300638</v>
+      </c>
+      <c r="D99">
+        <v>-0.02366634212514892</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0004457101683590043</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002713140057856634</v>
+      </c>
+      <c r="C101">
+        <v>0.0486837733201191</v>
+      </c>
+      <c r="D101">
+        <v>0.01157318661445813</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
